--- a/public/cohort/fileExcel/xlsxUIT/DU PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/DU PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -269,33 +269,27 @@
     <t>Leesvaardigheid</t>
   </si>
   <si>
+    <t xml:space="preserve">Taaltaak (combinatie van de verschillende vaardigheden) </t>
+  </si>
+  <si>
+    <t>Bij tt mag een woordenboek Duits - Nederlands en Nederlands - Duits gebruikt worden, tenzij anders staat aangegeven.</t>
+  </si>
+  <si>
+    <t>Spreekvaardigheid - en gespreksvaardigheid (in tweetallen)</t>
+  </si>
+  <si>
+    <t>Literatuur</t>
+  </si>
+  <si>
+    <t>Schrijfvaardigheid</t>
+  </si>
+  <si>
+    <t>Kijk- en luistervaardigheid</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t xml:space="preserve">Taaltaak (combinatie van de verschillende vaardigheden) </t>
-  </si>
-  <si>
-    <t>Bij tt mag een woordenboek Duits - Nederlands en Nederlands - Duits gebruikt worden, tenzij anders staat aangegeven.</t>
-  </si>
-  <si>
-    <t>Literatuur</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>Schrijfvaardigheid</t>
-  </si>
-  <si>
-    <t>D1, D2</t>
-  </si>
-  <si>
-    <t>Kijk- en luistervaardigheid</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t xml:space="preserve">PW Basisgrammatica </t>
   </si>
   <si>
@@ -314,15 +308,9 @@
     <t xml:space="preserve">Literatuur en Literatuurgeschiedenis </t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t xml:space="preserve">Schrijfvaardigheid </t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t xml:space="preserve">Proefwerk idioom en eindexamenidioom </t>
   </si>
   <si>
@@ -332,16 +320,19 @@
     <t xml:space="preserve">Leesvaardigheid </t>
   </si>
   <si>
+    <t xml:space="preserve">Kijk - en luistervaardigheid </t>
+  </si>
+  <si>
     <t xml:space="preserve">Spreek - en gesprekvaardigheid (deels met partner) </t>
   </si>
   <si>
-    <t>C, F</t>
-  </si>
-  <si>
     <t xml:space="preserve">Idioom en examenidioom </t>
   </si>
   <si>
     <t>Eindexamen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kijk - en luistertoets </t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1349,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1366,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I6" s="27">
         <v>2</v>
@@ -1385,9 +1376,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1402,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -1421,9 +1410,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1438,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I8" s="27">
         <v>2</v>
@@ -1457,9 +1444,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1475,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I9" s="27">
         <v>3</v>
@@ -1492,9 +1477,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1502,7 +1485,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1510,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I10" s="27">
         <v>2</v>
@@ -1529,9 +1512,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -1568,9 +1549,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -2272,7 +2251,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2386,7 +2365,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2541,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I18" s="27">
         <v>2</v>
@@ -2562,9 +2541,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>95</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2573,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I19" s="27">
         <v>2</v>
@@ -2594,9 +2571,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>97</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2605,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I20" s="27">
         <v>2</v>
@@ -2624,9 +2599,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32">
-        <v>0</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2635,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I21" s="27">
         <v>3</v>
@@ -2652,9 +2625,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32">
-        <v>0</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2663,7 +2634,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I22" s="27">
         <v>3</v>
@@ -2684,29 +2655,33 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32">
-        <v>0</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
+      <c r="G23" s="27">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="27">
+        <v>2</v>
+      </c>
       <c r="J23" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
+      <c r="L23" s="27">
+        <v>50</v>
+      </c>
       <c r="M23" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N23" s="31"/>
       <c r="O23" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P23" s="32"/>
     </row>
@@ -3182,7 +3157,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3296,7 +3271,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3656,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3675,9 +3650,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>102</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3686,7 +3659,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3705,9 +3678,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32">
-        <v>0</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3716,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3733,18 +3704,16 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32">
-        <v>0</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="G33" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
@@ -3758,34 +3727,38 @@
         <v>8</v>
       </c>
       <c r="N33" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="32">
-        <v>0</v>
-      </c>
+      <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
+      <c r="G34" s="27">
+        <v>3</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="I34" s="27"/>
       <c r="J34" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
+      <c r="L34" s="27">
+        <v>100</v>
+      </c>
       <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N34" s="31">
+        <v>3</v>
+      </c>
       <c r="O34" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P34" s="32"/>
     </row>
@@ -4182,7 +4155,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5137,7 +5110,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5953,7 +5926,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6769,7 +6742,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7508,9 +7481,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7544,9 +7515,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7580,9 +7549,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7617,9 +7584,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7627,7 +7592,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7656,9 +7621,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -7674,7 +7637,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="27">
         <v>2</v>
@@ -7691,9 +7654,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -7736,7 +7697,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -8509,7 +8470,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8664,65 +8625,61 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>25</v>
+      </c>
       <c r="M18" s="27" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>84</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>86</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
@@ -8741,9 +8698,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32">
-        <v>0</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -8752,7 +8707,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
@@ -8760,7 +8715,7 @@
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="27">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M21" s="27" t="s">
         <v>8</v>
@@ -8771,29 +8726,33 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>88</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
+      <c r="G22" s="27">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
+      <c r="L22" s="27">
+        <v>60</v>
+      </c>
       <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>3</v>
+      </c>
       <c r="O22" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P22" s="32"/>
     </row>
@@ -9395,7 +9354,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/DU PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/DU PTA en onderwijsprogramma.xlsx
@@ -1351,7 +1351,9 @@
       <c r="B6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>81</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1385,7 +1387,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>82</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -1419,7 +1423,9 @@
       <c r="B8" s="2">
         <v>16</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>83</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -1454,7 +1460,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>84</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -1485,9 +1493,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445706019</v>
+      </c>
+      <c r="D10" s="2">
+        <v>85</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -1522,7 +1532,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>86</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -1571,7 +1583,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>37</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1591,9 +1605,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1785,7 +1797,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>38</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1990,7 +2004,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>39</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2365,7 +2381,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2437,7 +2453,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>40</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2514,7 +2532,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>87</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2544,7 +2564,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>88</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2574,7 +2596,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>89</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -2602,7 +2626,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>90</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -2628,7 +2654,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>91</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>4</v>
@@ -2658,7 +2686,9 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>92</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="G23" s="27">
         <v>4</v>
@@ -2689,7 +2719,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>41</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2702,9 +2734,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2896,7 +2926,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>42</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3271,7 +3303,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3343,7 +3375,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>43</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3555,7 +3589,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>44</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3625,7 +3661,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>93</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3653,7 +3691,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>94</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3681,7 +3721,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>95</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>2</v>
@@ -3707,7 +3749,9 @@
       <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>96</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="G33" s="27">
         <v>2</v>
@@ -3735,7 +3779,9 @@
       <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>97</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="G34" s="27">
         <v>3</v>
@@ -3788,7 +3834,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>45</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -3801,9 +3849,7 @@
       <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34">
-        <v>0</v>
-      </c>
+      <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
@@ -4155,7 +4201,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5110,7 +5156,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5926,7 +5972,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6742,7 +6788,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7456,7 +7502,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>70</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7490,7 +7538,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>71</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -7524,7 +7574,9 @@
       <c r="B8" s="2">
         <v>14</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>72</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -7559,7 +7611,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>73</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -7592,9 +7646,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445706019</v>
+      </c>
+      <c r="D10" s="2">
+        <v>74</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -7631,7 +7687,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>75</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -7676,7 +7734,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>33</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7890,7 +7950,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>34</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8470,7 +8532,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8542,7 +8604,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>35</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8619,7 +8683,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>76</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8647,7 +8713,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>77</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>1</v>
@@ -8673,7 +8741,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>78</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>2</v>
@@ -8701,7 +8771,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>79</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -8729,7 +8801,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>80</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>3</v>
@@ -8782,7 +8856,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>36</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -8795,9 +8871,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9354,7 +9428,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/DU PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/DU PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,24 +252,90 @@
     <t>DU</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idioom en grammatica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiekbrief naamvallen </t>
+  </si>
+  <si>
+    <t>MVT/K/2, MVT/K/3</t>
+  </si>
+  <si>
+    <t>Taaltaak</t>
+  </si>
+  <si>
+    <t>MVT/V/4, MVT/K/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schrijfvaardigheid </t>
+  </si>
+  <si>
+    <t>Tekstverwerker met spellingscontrole Duits toegestaan, Spiekbrief naamvallen</t>
+  </si>
+  <si>
+    <t>MVT/K/7, MVT/K/3</t>
+  </si>
+  <si>
+    <t>Spreekvaardigheid</t>
+  </si>
+  <si>
+    <t>MVT/K/6, MVT/K/2, MVT/K/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kijk- luistertoets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kladpapier en uitgeprinte versie </t>
+  </si>
+  <si>
+    <t>MVT/K/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leesvaardigheid </t>
+  </si>
+  <si>
+    <t>Woordenboek toegestaan (DN - ND)</t>
+  </si>
+  <si>
+    <t>MVT/K/4</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t xml:space="preserve">Herhaling basisgrammatica, woordenschat. </t>
   </si>
   <si>
+    <t>Stappenplan grammatica, geen woordenboek DN en ND</t>
+  </si>
+  <si>
     <t>Kijk-luistertoets</t>
   </si>
   <si>
+    <t>geen woordenboek (DN en ND)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schrijfvaardigheid (tweetallen) </t>
   </si>
   <si>
+    <t xml:space="preserve">Stappenplan grammatica,  Spellingscontrole Duits toegestaan. </t>
+  </si>
+  <si>
     <t>Woordenschat</t>
   </si>
   <si>
+    <t>Woordenboek niet toegestaan (DN en ND)</t>
+  </si>
+  <si>
     <t>Leesvaardigheid</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taaltaak (combinatie van de verschillende vaardigheden) </t>
   </si>
   <si>
@@ -278,16 +345,31 @@
     <t>Spreekvaardigheid - en gespreksvaardigheid (in tweetallen)</t>
   </si>
   <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
     <t>Literatuur</t>
   </si>
   <si>
+    <t>E1</t>
+  </si>
+  <si>
     <t>Schrijfvaardigheid</t>
   </si>
   <si>
+    <t>Stappenplan grammatica,  tekstverwerker met spellingscontrole Duits</t>
+  </si>
+  <si>
+    <t>D1, D2</t>
+  </si>
+  <si>
+    <t>Woordenboek DN en ND</t>
+  </si>
+  <si>
     <t>Kijk- en luistervaardigheid</t>
   </si>
   <si>
-    <t>A</t>
+    <t>B</t>
   </si>
   <si>
     <t xml:space="preserve">PW Basisgrammatica </t>
@@ -305,10 +387,19 @@
     <t xml:space="preserve">PW Luistervaardigheid </t>
   </si>
   <si>
+    <t>Woordenboek toegestaan (DN en ND)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Literatuur en Literatuurgeschiedenis </t>
   </si>
   <si>
-    <t xml:space="preserve">Schrijfvaardigheid </t>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Tekstverwerker met spellingscontrole Duits toegestaan</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t xml:space="preserve">Proefwerk idioom en eindexamenidioom </t>
@@ -317,13 +408,13 @@
     <t xml:space="preserve">Taaltaak </t>
   </si>
   <si>
-    <t xml:space="preserve">Leesvaardigheid </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kijk - en luistervaardigheid </t>
   </si>
   <si>
     <t xml:space="preserve">Spreek - en gesprekvaardigheid (deels met partner) </t>
+  </si>
+  <si>
+    <t>C, F</t>
   </si>
   <si>
     <t xml:space="preserve">Idioom en examenidioom </t>
@@ -1261,12 +1352,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1288,25 +1379,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>DU leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1348,35 +1435,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2">
-        <v>81</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>100</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1384,35 +1461,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>82</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>100</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1420,35 +1487,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
-        <v>83</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1458,32 +1515,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="27">
-        <v>3</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1493,34 +1544,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2">
-        <v>85</v>
-      </c>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="27">
-        <v>2</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>50</v>
-      </c>
+      <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1532,34 +1575,24 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>86</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="27">
-        <v>3</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>100</v>
-      </c>
+      <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -1578,17 +1611,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>37</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1603,7 +1634,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
+        <v>2024</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -1620,7 +1651,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>DU leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1797,12 +1828,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>38</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1827,7 +1856,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>DU leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2004,12 +2033,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>39</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2083,44 +2110,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2184,7 +2173,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2215,7 +2204,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>DU leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>DU leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2267,26 +2256,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="D6" s="2">
+        <v>81</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>100</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -2295,22 +2292,30 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>82</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>100</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
@@ -2323,22 +2328,30 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>83</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
@@ -2352,22 +2365,28 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>84</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="27">
+        <v>3</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
@@ -2381,22 +2400,30 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2">
+        <v>85</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>50</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
@@ -2412,24 +2439,36 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>86</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="27">
+        <v>3</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="27">
+        <v>100</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="31">
+        <v>3</v>
+      </c>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -2448,17 +2487,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2473,7 +2512,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -2490,7 +2529,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>DU leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>DU leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2532,186 +2571,134 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>87</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>88</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>89</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="27">
-        <v>2</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>90</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="27">
-        <v>3</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>91</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>4</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="27">
-        <v>3</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27">
-        <v>100</v>
-      </c>
+      <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2">
-        <v>92</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="27">
-        <v>4</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="27">
-        <v>2</v>
-      </c>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K23" s="30"/>
-      <c r="L23" s="27">
-        <v>50</v>
-      </c>
+      <c r="L23" s="27"/>
       <c r="M23" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N23" s="31"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32"/>
     </row>
@@ -2720,11 +2707,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2749,7 +2736,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>DU leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>DU leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2927,11 +2914,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3064,6 +3051,942 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>DU leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>40</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>DU leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>87</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>88</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>89</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>90</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="27">
+        <v>3</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>91</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="27">
+        <v>3</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="27">
+        <v>100</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>3</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2">
+        <v>92</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="27">
+        <v>2</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="27">
+        <v>50</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>41</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>DU leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>42</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3189,7 +4112,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3303,7 +4226,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3669,13 +4592,15 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="30"/>
+      <c r="K30" s="30" t="s">
+        <v>99</v>
+      </c>
       <c r="L30" s="27">
         <v>30</v>
       </c>
@@ -3688,7 +4613,9 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32"/>
+      <c r="P30" s="32" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3699,13 +4626,15 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="30"/>
+      <c r="K31" s="30" t="s">
+        <v>99</v>
+      </c>
       <c r="L31" s="27">
         <v>100</v>
       </c>
@@ -3716,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32"/>
     </row>
@@ -3729,7 +4658,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3757,13 +4686,15 @@
         <v>2</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="30"/>
+      <c r="K33" s="30" t="s">
+        <v>99</v>
+      </c>
       <c r="L33" s="27">
         <v>100</v>
       </c>
@@ -3776,7 +4707,9 @@
       <c r="O33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="32"/>
+      <c r="P33" s="32" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2">
@@ -3787,7 +4720,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I34" s="27"/>
       <c r="J34" s="29" t="s">
@@ -3804,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P34" s="32"/>
     </row>
@@ -4201,7 +5134,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5156,7 +6089,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5972,7 +6905,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6596,12 +7529,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6623,6 +7556,937 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>DU leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>DU leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>67</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>2</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>20</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>3</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>68</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="27">
+        <v>100</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>3</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27">
+        <v>3</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="27">
+        <v>100</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="31">
+        <v>3</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>32</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>DU leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6788,7 +8652,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7368,924 +9232,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>DU leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>70</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>100</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>71</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
-        <v>72</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>73</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2">
-        <v>74</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>3</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>100</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>3</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2">
-        <v>75</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="27">
-        <v>2</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>33</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>DU leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>34</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>DU leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8335,7 +9281,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8366,7 +9312,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>DU leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>DU leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8418,22 +9364,32 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="D6" s="2">
+        <v>70</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="27">
+        <v>100</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
@@ -8446,22 +9402,32 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>71</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
@@ -8474,22 +9440,32 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>72</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
@@ -8503,22 +9479,32 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>73</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
@@ -8532,28 +9518,40 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2">
+        <v>74</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="27">
+        <v>3</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="31">
+        <v>3</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -8563,20 +9561,26 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>75</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
@@ -8599,17 +9603,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8624,9 +9628,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>103</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -8641,7 +9647,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>DU leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>DU leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8683,150 +9689,112 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>76</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>25</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>77</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>1</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>78</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>2</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>79</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>79</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>100</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>80</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>3</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
       <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27">
-        <v>60</v>
-      </c>
+      <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
@@ -8857,11 +9825,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8886,7 +9854,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>DU leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>DU leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9066,7 +10034,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9236,12 +10204,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9263,21 +10231,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>DU leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9319,7 +10291,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9345,7 +10319,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9371,7 +10347,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>15</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9399,7 +10377,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9428,7 +10406,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9495,15 +10473,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>35</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9518,7 +10498,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9535,7 +10515,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>DU leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9577,114 +10557,168 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>76</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+        <v>10</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="27">
+        <v>25</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>3</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>77</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>78</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>108</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>3</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>79</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="27">
+        <v>100</v>
+      </c>
       <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>3</v>
+      </c>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>80</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
+      <c r="G22" s="27">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>112</v>
+      </c>
       <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" s="27">
+        <v>60</v>
+      </c>
       <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>3</v>
+      </c>
       <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -9712,10 +10746,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>36</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9740,7 +10776,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>DU leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9920,7 +10956,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  DU leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9994,6 +11030,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/DU PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/DU PTA en onderwijsprogramma.xlsx
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808761574</v>
+        <v>44341.376134259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2389,7 +2389,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808761574</v>
+        <v>44341.376134259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3517,7 +3517,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808761574</v>
+        <v>44341.376134259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4674,7 +4674,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808761574</v>
+        <v>44341.376134259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5815,7 +5815,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808761574</v>
+        <v>44341.376134259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6890,7 +6890,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808761574</v>
+        <v>44341.376134259</v>
       </c>
       <c r="D10" s="2">
         <v>74</v>
@@ -8028,7 +8028,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808761574</v>
+        <v>44341.376134259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9160,7 +9160,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808761574</v>
+        <v>44341.376134259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10240,7 +10240,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808761574</v>
+        <v>44341.376134259</v>
       </c>
       <c r="D10" s="2">
         <v>85</v>
@@ -11370,7 +11370,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/DU PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/DU PTA en onderwijsprogramma.xlsx
@@ -2335,7 +2335,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38212963</v>
+        <v>44342.629363426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2882,121 +2882,169 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>638</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" s="23">
+        <v>30</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>3</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>122</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>639</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" s="23">
+        <v>100</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>2</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P31" s="28"/>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>640</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>2</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>124</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="23"/>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>2</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P32" s="28"/>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>641</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="24"/>
+      <c r="G33" s="23">
+        <v>2</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="I33" s="23"/>
       <c r="J33" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" s="23">
+        <v>100</v>
+      </c>
       <c r="M33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N33" s="27">
+        <v>2</v>
+      </c>
       <c r="O33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>107</v>
+      </c>
       <c r="Q33" s="37"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>642</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="37"/>
-      <c r="G34" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="24"/>
+      <c r="G34" s="23">
+        <v>3</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="I34" s="23"/>
       <c r="J34" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K34" s="26"/>
-      <c r="L34" s="23"/>
+      <c r="L34" s="23">
+        <v>100</v>
+      </c>
       <c r="M34" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N34" s="27">
+        <v>3</v>
+      </c>
       <c r="O34" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P34" s="28"/>
       <c r="Q34" s="37"/>
@@ -3481,7 +3529,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38212963</v>
+        <v>44342.629363426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4771,7 +4819,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38212963</v>
+        <v>44342.629363426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4982,147 +5030,213 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>621</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>622</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>623</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>624</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>2</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>20</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>3</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>625</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
+      <c r="G22" s="23">
+        <v>3</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="I22" s="23"/>
       <c r="J22" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="23">
+        <v>100</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>3</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>626</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24"/>
+      <c r="G23" s="23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="I23" s="23"/>
       <c r="J23" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="23">
+        <v>100</v>
+      </c>
       <c r="M23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N23" s="27">
+        <v>3</v>
+      </c>
       <c r="O23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17">
@@ -5846,7 +5960,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38212963</v>
+        <v>44342.629363426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6867,21 +6981,31 @@
       <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>632</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
@@ -6897,21 +7021,31 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>633</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -6927,21 +7061,31 @@
       <c r="B8" s="2">
         <v>188</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>634</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -6958,21 +7102,31 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>635</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
@@ -6987,29 +7141,41 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38212963</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629363426</v>
+      </c>
+      <c r="D10" s="2">
+        <v>636</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="23">
+        <v>3</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="27">
+        <v>3</v>
+      </c>
       <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
@@ -7020,21 +7186,27 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>637</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="23"/>
       <c r="M11" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" s="27" t="s">
@@ -8105,7 +8277,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38212963</v>
+        <v>44342.629363426</v>
       </c>
       <c r="D10" s="2">
         <v>74</v>
@@ -8336,123 +8508,177 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>627</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="23">
+        <v>25</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>3</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>99</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>628</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>101</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>629</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>3</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>630</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="23">
+        <v>100</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>3</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P21" s="28"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>631</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
+      <c r="G22" s="23">
+        <v>3</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="I22" s="23"/>
       <c r="J22" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="23">
+        <v>60</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>3</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>107</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
@@ -9203,7 +9429,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38212963</v>
+        <v>44342.629363426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10215,25 +10441,33 @@
       <c r="B6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>649</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
@@ -10245,21 +10479,29 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>650</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>100</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -10275,21 +10517,29 @@
       <c r="B8" s="2">
         <v>189</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>651</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -10306,21 +10556,27 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>652</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
@@ -10335,23 +10591,31 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38212963</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629363426</v>
+      </c>
+      <c r="D10" s="2">
+        <v>653</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>50</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27" t="s">
@@ -10368,25 +10632,37 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>654</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="23">
+        <v>3</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="23">
+        <v>100</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="27">
+        <v>3</v>
+      </c>
       <c r="O11" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="37"/>
@@ -11445,7 +11721,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38212963</v>
+        <v>44342.629363426</v>
       </c>
       <c r="D10" s="2">
         <v>85</v>
@@ -11676,69 +11952,107 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>643</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>115</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>644</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>117</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>645</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="27" t="s">
@@ -11748,21 +12062,27 @@
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>646</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="23">
+        <v>3</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" s="27" t="s">
@@ -11772,45 +12092,67 @@
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>647</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="23">
+        <v>4</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="23">
+        <v>3</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" s="23">
+        <v>100</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>3</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P22" s="28"/>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>648</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
+      <c r="G23" s="23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="23">
+        <v>2</v>
+      </c>
       <c r="J23" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="23">
+        <v>50</v>
+      </c>
       <c r="M23" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="27" t="s">

--- a/public/cohort/fileExcel/xlsxUIT/DU PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/DU PTA en onderwijsprogramma.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -918,6 +918,9 @@
   </si>
   <si>
     <t xml:space="preserve">Spiekbrief naamvallen </t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>MVT/K/2, MVT/K/3</t>
@@ -2316,7 +2319,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2670,7 +2673,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540972222</v>
+        <v>44378.45119213</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3042,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -3051,7 +3054,7 @@
         <v>7</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18" s="45">
         <v>100</v>
@@ -3063,10 +3066,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -3138,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -3147,7 +3150,7 @@
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L19" s="45">
         <v>100</v>
@@ -3159,10 +3162,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -3234,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -3243,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -3253,7 +3256,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -3326,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -3341,7 +3344,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -3414,7 +3417,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" s="45">
         <v>3</v>
@@ -3423,7 +3426,7 @@
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="45">
         <v>100</v>
@@ -3435,7 +3438,7 @@
         <v>3</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -3508,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I23" s="45">
         <v>2</v>
@@ -3517,7 +3520,7 @@
         <v>7</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L23" s="45">
         <v>50</v>
@@ -3527,7 +3530,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
@@ -3763,14 +3766,14 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
         <v>10</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L30" s="45">
         <v>30</v>
@@ -3782,10 +3785,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -3857,14 +3860,14 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L31" s="45">
         <v>100</v>
@@ -3876,7 +3879,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P31" s="32"/>
       <c r="R31" s="7">
@@ -3949,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -3964,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P32" s="32"/>
       <c r="R32" s="7">
@@ -4037,14 +4040,14 @@
         <v>2</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L33" s="45">
         <v>100</v>
@@ -4056,10 +4059,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -4131,7 +4134,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I34" s="45"/>
       <c r="J34" s="29" t="s">
@@ -4148,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P34" s="32"/>
       <c r="R34" s="7">
@@ -4668,7 +4671,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5022,7 +5025,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540972222</v>
+        <v>44378.45119213</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6049,14 +6052,14 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
         <v>10</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L30" s="45">
         <v>30</v>
@@ -6068,10 +6071,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -6143,14 +6146,14 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L31" s="45">
         <v>100</v>
@@ -6162,7 +6165,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P31" s="32"/>
       <c r="R31" s="7">
@@ -6235,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -6250,7 +6253,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P32" s="32"/>
       <c r="R32" s="7">
@@ -6323,14 +6326,14 @@
         <v>2</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L33" s="45">
         <v>100</v>
@@ -6342,10 +6345,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -6417,7 +6420,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I34" s="45"/>
       <c r="J34" s="29" t="s">
@@ -6434,7 +6437,7 @@
         <v>3</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P34" s="32"/>
       <c r="R34" s="7">
@@ -7483,7 +7486,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.45119213</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7874,10 +7877,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7949,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7964,10 +7967,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -8039,14 +8042,14 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -8058,10 +8061,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8133,7 +8136,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -8150,10 +8153,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -8225,14 +8228,14 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
         <v>14</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L22" s="45">
         <v>100</v>
@@ -8244,10 +8247,10 @@
         <v>3</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -8319,14 +8322,14 @@
         <v>3</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L23" s="45">
         <v>100</v>
@@ -8338,10 +8341,10 @@
         <v>3</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -9785,7 +9788,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.45119213</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10157,7 +10160,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -10176,10 +10179,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -10251,7 +10254,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -10266,10 +10269,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -10341,14 +10344,14 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -10360,10 +10363,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -10435,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -10452,10 +10455,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -10527,14 +10530,14 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
         <v>14</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L22" s="45">
         <v>100</v>
@@ -10546,10 +10549,10 @@
         <v>3</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -10621,14 +10624,14 @@
         <v>3</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L23" s="45">
         <v>100</v>
@@ -10640,10 +10643,10 @@
         <v>3</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -11733,7 +11736,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>632</v>
@@ -11743,7 +11746,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -11752,7 +11755,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L6" s="45">
         <v>100</v>
@@ -11762,7 +11765,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11841,7 +11844,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11850,7 +11853,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" s="45">
         <v>100</v>
@@ -11860,7 +11863,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11939,7 +11942,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -11948,7 +11951,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" s="45">
         <v>50</v>
@@ -11958,7 +11961,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -12038,7 +12041,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -12047,7 +12050,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" s="45">
         <v>20</v>
@@ -12057,7 +12060,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -12127,7 +12130,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.45119213</v>
       </c>
       <c r="D10" s="2">
         <v>636</v>
@@ -12137,7 +12140,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -12152,7 +12155,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12232,7 +12235,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -12241,7 +12244,7 @@
         <v>7</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L11" s="45">
         <v>50</v>
@@ -12251,7 +12254,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -14025,7 +14028,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>70</v>
@@ -14035,7 +14038,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -14044,7 +14047,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" s="45">
         <v>100</v>
@@ -14054,7 +14057,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -14133,7 +14136,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -14142,7 +14145,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" s="45">
         <v>50</v>
@@ -14152,7 +14155,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -14231,7 +14234,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -14240,7 +14243,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" s="45">
         <v>100</v>
@@ -14250,7 +14253,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -14330,7 +14333,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -14339,7 +14342,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" s="45">
         <v>100</v>
@@ -14349,7 +14352,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14419,7 +14422,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.45119213</v>
       </c>
       <c r="D10" s="2">
         <v>74</v>
@@ -14429,7 +14432,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -14448,10 +14451,10 @@
         <v>3</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -14530,7 +14533,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -14545,7 +14548,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -14680,7 +14683,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -14811,14 +14814,14 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
         <v>10</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18" s="45">
         <v>25</v>
@@ -14830,10 +14833,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14905,14 +14908,14 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L19" s="45">
         <v>50</v>
@@ -14924,7 +14927,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -14997,14 +15000,14 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -15016,10 +15019,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -15091,14 +15094,14 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L21" s="45">
         <v>100</v>
@@ -15110,7 +15113,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -15183,14 +15186,14 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L22" s="45">
         <v>60</v>
@@ -15202,10 +15205,10 @@
         <v>3</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -15270,14 +15273,14 @@
     </row>
     <row r="23" spans="1:32" customHeight="1" ht="72">
       <c r="D23" s="2">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="E23" s="2"/>
       <c r="G23" s="27">
         <v>3</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="29" t="s">
@@ -15292,10 +15295,10 @@
         <v>2</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -16385,7 +16388,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16739,7 +16742,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.45119213</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -17111,14 +17114,14 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
         <v>10</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18" s="45">
         <v>25</v>
@@ -17130,10 +17133,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -17205,7 +17208,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -17220,10 +17223,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -17295,14 +17298,14 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -17314,10 +17317,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -17389,14 +17392,14 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L21" s="45">
         <v>100</v>
@@ -17408,7 +17411,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -17481,14 +17484,14 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L22" s="45">
         <v>60</v>
@@ -17500,10 +17503,10 @@
         <v>3</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -18675,7 +18678,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2">
         <v>649</v>
@@ -18685,7 +18688,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -18701,8 +18704,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18781,7 +18784,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -18798,7 +18801,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18877,7 +18880,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -18894,7 +18897,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18974,7 +18977,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -18989,7 +18992,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -19059,7 +19062,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.45119213</v>
       </c>
       <c r="D10" s="2">
         <v>653</v>
@@ -19069,7 +19072,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -19086,7 +19089,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -19166,7 +19169,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -19175,7 +19178,7 @@
         <v>7</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L11" s="45">
         <v>100</v>
@@ -19187,7 +19190,7 @@
         <v>3</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -20963,7 +20966,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2">
         <v>81</v>
@@ -20973,7 +20976,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -20989,8 +20992,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -21069,7 +21072,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -21086,7 +21089,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -21165,7 +21168,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -21182,7 +21185,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21262,7 +21265,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -21277,7 +21280,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21347,7 +21350,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540972222</v>
+        <v>44378.45119213</v>
       </c>
       <c r="D10" s="2">
         <v>85</v>
@@ -21357,7 +21360,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -21374,7 +21377,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21454,7 +21457,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -21463,7 +21466,7 @@
         <v>7</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L11" s="45">
         <v>100</v>
@@ -21475,7 +21478,7 @@
         <v>3</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -21739,7 +21742,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -21748,7 +21751,7 @@
         <v>10</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18" s="45">
         <v>30</v>
@@ -21760,10 +21763,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -21835,7 +21838,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -21844,7 +21847,7 @@
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="45">
         <v>100</v>
@@ -21856,10 +21859,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -21931,7 +21934,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -21940,7 +21943,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -21950,7 +21953,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -22023,7 +22026,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -22038,7 +22041,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -22111,7 +22114,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" s="45">
         <v>3</v>
@@ -22120,7 +22123,7 @@
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="45">
         <v>100</v>
@@ -22132,7 +22135,7 @@
         <v>3</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -22205,7 +22208,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I23" s="45">
         <v>2</v>
@@ -22214,7 +22217,7 @@
         <v>7</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L23" s="45">
         <v>50</v>
@@ -22224,7 +22227,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
